--- a/ExcelExport/Templates/specification.xlsx
+++ b/ExcelExport/Templates/specification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GostDOC\ExcelExport\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42095F71-AA2B-48BE-AAFC-B4FA30449DE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60538010-8107-44F6-A341-2C7CCCFE4745}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="13755" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -228,13 +228,6 @@
     </font>
     <font>
       <i/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="T-FLEX Type A"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="T-FLEX Type A"/>
@@ -244,6 +237,13 @@
       <b/>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="T-FLEX Type A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="T-FLEX Type A"/>
       <charset val="204"/>
@@ -938,6 +938,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -995,160 +1012,178 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1164,37 +1199,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,29 +1253,29 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1278,33 +1325,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1316,45 +1352,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,6 +1373,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1387,79 +1442,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Данные (SWR-Спецификация)" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Зона (SWR-Спецификация)" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Исполнение (SWR-Спецификация)" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Количество (SWR-Спецификация)" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Наименование (SWR-Спецификация)" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Обозначение (SWR-Спецификация)" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Обычный 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Обычный 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
@@ -1491,9 +1491,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1531,7 +1531,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1637,7 +1637,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1813,959 +1813,966 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.54296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="0.54296875" customWidth="1"/>
+    <col min="5" max="5" width="0.5703125" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" customWidth="1"/>
-    <col min="8" max="8" width="1.54296875" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="6.453125" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="17" width="2.453125" customWidth="1"/>
+    <col min="15" max="17" width="2.42578125" customWidth="1"/>
     <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="3.453125" customWidth="1"/>
-    <col min="20" max="20" width="1.54296875" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1"/>
+    <col min="20" max="20" width="1.5703125" customWidth="1"/>
     <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="42.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="52"/>
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="1:21" ht="42.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="59"/>
+      <c r="B1" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="220" t="s">
+      <c r="C1" s="115"/>
+      <c r="D1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="221" t="s">
+      <c r="E1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222" t="s">
+      <c r="H1" s="79"/>
+      <c r="I1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="222" t="s">
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="222" t="s">
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="223" t="s">
+      <c r="T1" s="116"/>
+      <c r="U1" s="58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="107"/>
+    <row r="2" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="115"/>
       <c r="D2" s="41"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="216"/>
-    </row>
-    <row r="3" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="107"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="55"/>
+    </row>
+    <row r="3" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A3" s="59"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="50"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="215"/>
-    </row>
-    <row r="4" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="107"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="54"/>
+    </row>
+    <row r="4" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="50"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="215"/>
-    </row>
-    <row r="5" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="107"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="54"/>
+    </row>
+    <row r="5" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A5" s="59"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="50"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="215"/>
-    </row>
-    <row r="6" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="107"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="54"/>
+    </row>
+    <row r="6" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A6" s="59"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="50"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="215"/>
-    </row>
-    <row r="7" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="107"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="54"/>
+    </row>
+    <row r="7" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A7" s="59"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="50"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="215"/>
-    </row>
-    <row r="8" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="70" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="54"/>
+    </row>
+    <row r="8" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="107"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="50"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="215"/>
-    </row>
-    <row r="9" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="107"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="54"/>
+    </row>
+    <row r="9" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="50"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="215"/>
-    </row>
-    <row r="10" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="107"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="54"/>
+    </row>
+    <row r="10" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="50"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="215"/>
-    </row>
-    <row r="11" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="107"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="54"/>
+    </row>
+    <row r="11" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="50"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="215"/>
-    </row>
-    <row r="12" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="54"/>
+    </row>
+    <row r="12" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="50"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="215"/>
-    </row>
-    <row r="13" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="54"/>
+    </row>
+    <row r="13" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="215"/>
-    </row>
-    <row r="14" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="54"/>
+    </row>
+    <row r="14" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="215"/>
-    </row>
-    <row r="15" spans="1:21" ht="22.75" customHeight="1">
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="54"/>
+    </row>
+    <row r="15" spans="1:21" ht="22.7" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="50"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="215"/>
-    </row>
-    <row r="16" spans="1:21" ht="22.75" customHeight="1">
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="54"/>
+    </row>
+    <row r="16" spans="1:21" ht="22.7" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="215"/>
-    </row>
-    <row r="17" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="54"/>
+    </row>
+    <row r="17" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="215"/>
-    </row>
-    <row r="18" spans="1:21" ht="22.75" customHeight="1">
+      <c r="E17" s="75"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="54"/>
+    </row>
+    <row r="18" spans="1:21" ht="22.7" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="103"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="50"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="215"/>
-    </row>
-    <row r="19" spans="1:21" ht="22.75" customHeight="1">
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="54"/>
+    </row>
+    <row r="19" spans="1:21" ht="22.7" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="104"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="215"/>
-    </row>
-    <row r="20" spans="1:21" ht="22.75" customHeight="1">
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="54"/>
+    </row>
+    <row r="20" spans="1:21" ht="22.7" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="104"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="50"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="215"/>
-    </row>
-    <row r="21" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="54"/>
+    </row>
+    <row r="21" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="105"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="50"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="215"/>
-    </row>
-    <row r="22" spans="1:21" ht="22.75" customHeight="1">
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="54"/>
+    </row>
+    <row r="22" spans="1:21" ht="22.7" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="50"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="215"/>
-    </row>
-    <row r="23" spans="1:21" ht="22.75" customHeight="1">
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="54"/>
+    </row>
+    <row r="23" spans="1:21" ht="22.7" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="104"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="50"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="215"/>
-    </row>
-    <row r="24" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="54"/>
+    </row>
+    <row r="24" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="105"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="50"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="215"/>
-    </row>
-    <row r="25" spans="1:21" ht="22.75" customHeight="1">
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="54"/>
+    </row>
+    <row r="25" spans="1:21" ht="22.7" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="103"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="50"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="215"/>
-    </row>
-    <row r="26" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="54"/>
+    </row>
+    <row r="26" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="104"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="51"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="217"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="56"/>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="207"/>
-      <c r="M27" s="207"/>
-      <c r="N27" s="207"/>
-      <c r="O27" s="207"/>
-      <c r="P27" s="207"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="207"/>
-      <c r="S27" s="207"/>
-      <c r="T27" s="207"/>
-      <c r="U27" s="208"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="118"/>
     </row>
     <row r="28" spans="1:21" ht="39.75" customHeight="1" thickBot="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="206"/>
-      <c r="N28" s="208"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="209"/>
-      <c r="Q28" s="209"/>
-      <c r="R28" s="209"/>
-      <c r="S28" s="209"/>
-      <c r="T28" s="209"/>
-      <c r="U28" s="204"/>
-    </row>
-    <row r="29" spans="1:21" ht="22.75" customHeight="1" thickBot="1">
+      <c r="C28" s="80"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+      <c r="U28" s="86"/>
+    </row>
+    <row r="29" spans="1:21" ht="22.7" customHeight="1" thickBot="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="209"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="209"/>
-      <c r="R29" s="209"/>
-      <c r="S29" s="209"/>
-      <c r="T29" s="209"/>
-      <c r="U29" s="204"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="86"/>
     </row>
     <row r="30" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="90"/>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="104"/>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="93"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="106"/>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="79" t="s">
+      <c r="B32" s="81"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79" t="s">
+      <c r="E32" s="97"/>
+      <c r="F32" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79" t="s">
+      <c r="G32" s="97"/>
+      <c r="H32" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="79"/>
+      <c r="I32" s="97"/>
       <c r="J32" s="16" t="s">
         <v>15</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="96"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="108"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="73" t="s">
+      <c r="C33" s="80"/>
+      <c r="D33" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="79" t="s">
+      <c r="L33" s="221"/>
+      <c r="M33" s="221"/>
+      <c r="N33" s="221"/>
+      <c r="O33" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="218" t="s">
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="S33" s="219"/>
-      <c r="T33" s="218" t="s">
+      <c r="S33" s="131"/>
+      <c r="T33" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="U33" s="219"/>
+      <c r="U33" s="131"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="71" t="s">
+      <c r="B34" s="81"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
+      <c r="L34" s="222"/>
+      <c r="M34" s="222"/>
+      <c r="N34" s="222"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
       <c r="Q34" s="16"/>
-      <c r="R34" s="218">
+      <c r="R34" s="130">
         <v>1</v>
       </c>
-      <c r="S34" s="219"/>
-      <c r="T34" s="218"/>
-      <c r="U34" s="219"/>
+      <c r="S34" s="131"/>
+      <c r="T34" s="130"/>
+      <c r="U34" s="131"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
       <c r="J35" s="26"/>
       <c r="K35" s="26"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
+      <c r="L35" s="222"/>
+      <c r="M35" s="222"/>
+      <c r="N35" s="222"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="96"/>
     </row>
     <row r="36" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="71" t="s">
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
       <c r="J36" s="26"/>
       <c r="K36" s="26"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
+      <c r="L36" s="222"/>
+      <c r="M36" s="222"/>
+      <c r="N36" s="222"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="96"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="7"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="72" t="s">
+      <c r="B37" s="81"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-    </row>
-    <row r="38" spans="1:21" ht="15.5">
+      <c r="L37" s="223"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="223"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="96"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.75">
       <c r="K38" s="46"/>
-      <c r="L38" s="214"/>
-      <c r="M38" s="214" t="s">
+      <c r="L38" s="53"/>
+      <c r="M38" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="N38" s="214"/>
-      <c r="O38" s="117" t="s">
+      <c r="N38" s="53"/>
+      <c r="O38" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="129"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="129"/>
+      <c r="U38" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="S3:T3"/>
@@ -2775,16 +2782,6 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="I13:M13"/>
@@ -2806,6 +2803,9 @@
     <mergeCell ref="I24:M24"/>
     <mergeCell ref="I25:M25"/>
     <mergeCell ref="I26:M26"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="S19:T19"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="I2:M2"/>
@@ -2845,6 +2845,15 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I10:M10"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="N15:R15"/>
     <mergeCell ref="E17:F17"/>
@@ -2856,21 +2865,13 @@
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I10:M10"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="N19:R19"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
@@ -2891,6 +2892,10 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="N23:R23"/>
     <mergeCell ref="G24:H24"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N20:R20"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B37"/>
@@ -2913,11 +2918,6 @@
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N19:R19"/>
     <mergeCell ref="A1:A11"/>
     <mergeCell ref="N17:R17"/>
     <mergeCell ref="N7:R7"/>
@@ -2956,983 +2956,983 @@
   </sheetPr>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I32" sqref="I32:M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="2.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="0.54296875" customWidth="1"/>
-    <col min="6" max="6" width="2.54296875" customWidth="1"/>
-    <col min="7" max="7" width="2.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" customWidth="1"/>
-    <col min="11" max="11" width="4.81640625" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" customWidth="1"/>
-    <col min="14" max="14" width="21.1796875" customWidth="1"/>
-    <col min="15" max="15" width="1.453125" customWidth="1"/>
-    <col min="16" max="18" width="2.54296875" customWidth="1"/>
-    <col min="19" max="19" width="4.7265625" customWidth="1"/>
+    <col min="5" max="5" width="0.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="15" max="15" width="1.42578125" customWidth="1"/>
+    <col min="16" max="18" width="2.5703125" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" customWidth="1"/>
     <col min="20" max="20" width="5" customWidth="1"/>
-    <col min="21" max="21" width="5.7265625" customWidth="1"/>
-    <col min="22" max="22" width="5.1796875" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="120"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="52"/>
+      <c r="A1" s="132"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148" t="s">
+      <c r="F1" s="171"/>
+      <c r="G1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="132" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132" t="s">
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
       <c r="T1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="132" t="s">
+      <c r="U1" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="132"/>
+      <c r="V1" s="157"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="44"/>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="142"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="163"/>
       <c r="T2" s="47"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
     </row>
     <row r="3" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="139"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="155"/>
       <c r="T3" s="48"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
     </row>
     <row r="4" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="45"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
       <c r="T4" s="48"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
     </row>
     <row r="5" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="45"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
       <c r="T5" s="48"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
     </row>
     <row r="6" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="45"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
       <c r="T6" s="48"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
     </row>
     <row r="7" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="120"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="45"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
       <c r="T7" s="48"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="68"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="134"/>
     </row>
     <row r="8" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
       <c r="T8" s="48"/>
-      <c r="U8" s="68"/>
-      <c r="V8" s="68"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
     </row>
     <row r="9" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A9" s="120"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="45"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
       <c r="T9" s="48"/>
-      <c r="U9" s="68"/>
-      <c r="V9" s="68"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
     </row>
     <row r="10" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="45"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
       <c r="T10" s="48"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
     </row>
     <row r="11" spans="1:22" ht="22.5" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="156"/>
+      <c r="Q11" s="156"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
       <c r="T11" s="48"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
     </row>
     <row r="12" spans="1:22" ht="22.5" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="45"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
       <c r="T12" s="48"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
     </row>
     <row r="13" spans="1:22" ht="22.5" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="52"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="45"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
       <c r="T13" s="48"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
     </row>
     <row r="14" spans="1:22" ht="22.5" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="45"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
       <c r="T14" s="48"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
     </row>
     <row r="15" spans="1:22" ht="22.5" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="42"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
       <c r="T15" s="48"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
     </row>
     <row r="16" spans="1:22" ht="22.5" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="42"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="139"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="155"/>
       <c r="T16" s="48"/>
-      <c r="U16" s="129"/>
-      <c r="V16" s="130"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="148"/>
     </row>
     <row r="17" spans="1:22" ht="22.5" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="42"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
       <c r="T17" s="48"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
     </row>
     <row r="18" spans="1:22" ht="22.5" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="42"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="139"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="155"/>
       <c r="T18" s="48"/>
-      <c r="U18" s="129"/>
-      <c r="V18" s="130"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="148"/>
     </row>
     <row r="19" spans="1:22" ht="22.5" customHeight="1" thickBot="1">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="156"/>
+      <c r="Q19" s="156"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
       <c r="T19" s="48"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
     </row>
     <row r="20" spans="1:22" ht="22.5" customHeight="1" thickBot="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="42"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="156"/>
+      <c r="Q20" s="156"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
       <c r="T20" s="48"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
     </row>
     <row r="21" spans="1:22" ht="22.5" customHeight="1" thickBot="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="69"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="42"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="156"/>
+      <c r="Q21" s="156"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
       <c r="T21" s="48"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
     </row>
     <row r="22" spans="1:22" ht="22.5" customHeight="1" thickBot="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="42"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="131"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="156"/>
+      <c r="Q22" s="156"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
       <c r="T22" s="48"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
     </row>
     <row r="23" spans="1:22" ht="22.5" customHeight="1" thickBot="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="42"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
       <c r="T23" s="48"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
     </row>
     <row r="24" spans="1:22" ht="22.5" customHeight="1" thickBot="1">
       <c r="A24" s="10"/>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
       <c r="T24" s="48"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
     </row>
     <row r="25" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A25" s="10"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="42"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
       <c r="T25" s="48"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
     </row>
     <row r="26" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="42"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
       <c r="T26" s="48"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
     </row>
     <row r="27" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="122"/>
+      <c r="C27" s="135"/>
       <c r="D27" s="42"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
       <c r="T27" s="48"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
     </row>
     <row r="28" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A28" s="10"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="122"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="135"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
       <c r="T28" s="48"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
     </row>
     <row r="29" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="122"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="135"/>
       <c r="D29" s="42"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="156"/>
       <c r="T29" s="48"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
     </row>
     <row r="30" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="122"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="42"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="156"/>
+      <c r="Q30" s="156"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="156"/>
       <c r="T30" s="48"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
     </row>
     <row r="31" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A31" s="10"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="122"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="135"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
       <c r="T31" s="48"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
     </row>
     <row r="32" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="122"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="135"/>
       <c r="D32" s="42"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
       <c r="T32" s="48"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
     </row>
     <row r="33" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A33" s="10"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="122"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="135"/>
       <c r="D33" s="42"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="156"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="156"/>
       <c r="T33" s="48"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
     </row>
     <row r="34" spans="1:22" ht="23.25" customHeight="1" thickBot="1">
       <c r="A34" s="10"/>
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="103"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="43"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="133"/>
-      <c r="O34" s="133"/>
-      <c r="P34" s="133"/>
-      <c r="Q34" s="133"/>
-      <c r="R34" s="133"/>
-      <c r="S34" s="133"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
       <c r="T34" s="49"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
+      <c r="U34" s="136"/>
+      <c r="V34" s="136"/>
     </row>
     <row r="35" spans="1:22" ht="14.25" customHeight="1">
       <c r="A35" s="10"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="127" t="s">
+      <c r="L35" s="137"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="144" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="7.5" customHeight="1" thickBot="1">
       <c r="A36" s="10"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="128"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="145"/>
     </row>
     <row r="37" spans="1:22" ht="6.75" customHeight="1" thickBot="1">
       <c r="A37" s="10"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="93"/>
-      <c r="V37" s="123"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="140"/>
     </row>
     <row r="38" spans="1:22" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="10"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="79" t="s">
+      <c r="B38" s="124"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79" t="s">
+      <c r="E38" s="97"/>
+      <c r="F38" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79" t="s">
+      <c r="G38" s="97"/>
+      <c r="H38" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="79"/>
+      <c r="I38" s="97"/>
       <c r="J38" s="16" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="94"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="124"/>
-    </row>
-    <row r="39" spans="1:22" ht="15.5">
+      <c r="L38" s="139"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="141"/>
+    </row>
+    <row r="39" spans="1:22" ht="15.75">
       <c r="M39" s="46" t="s">
         <v>36</v>
       </c>
@@ -3943,10 +3943,10 @@
       <c r="R39" s="46"/>
       <c r="S39" s="46"/>
       <c r="T39" s="46"/>
-      <c r="U39" s="117" t="s">
+      <c r="U39" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="V39" s="117"/>
+      <c r="V39" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="200">
@@ -4004,6 +4004,7 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H36:I37"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="I2:M2"/>
@@ -4052,7 +4053,6 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="N20:S20"/>
     <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
     <mergeCell ref="I29:M29"/>
     <mergeCell ref="I30:M30"/>
     <mergeCell ref="I31:M31"/>
@@ -4081,7 +4081,6 @@
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U17:V17"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="U15:V15"/>
@@ -4102,7 +4101,7 @@
     <mergeCell ref="N26:S26"/>
     <mergeCell ref="N27:S27"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="N22:S22"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="I27:M27"/>
@@ -4126,6 +4125,7 @@
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="I32:M32"/>
+    <mergeCell ref="U17:V17"/>
     <mergeCell ref="A1:A10"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D38:E38"/>
@@ -4168,825 +4168,825 @@
       <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" customWidth="1"/>
-    <col min="2" max="2" width="2.54296875" customWidth="1"/>
-    <col min="3" max="4" width="3.453125" customWidth="1"/>
-    <col min="5" max="5" width="0.54296875" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" customWidth="1"/>
-    <col min="9" max="9" width="4.26953125" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" customWidth="1"/>
-    <col min="11" max="11" width="5.26953125" customWidth="1"/>
-    <col min="12" max="12" width="1.54296875" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="0.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="1" customWidth="1"/>
-    <col min="19" max="19" width="5.1796875" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="195"/>
-      <c r="D1" s="175" t="s">
+      <c r="A1" s="218"/>
+      <c r="D1" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="193"/>
     </row>
     <row r="2" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A2" s="195"/>
-      <c r="D2" s="175" t="s">
+      <c r="A2" s="218"/>
+      <c r="D2" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="175"/>
-      <c r="F2" s="190" t="s">
+      <c r="E2" s="193"/>
+      <c r="F2" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193" t="s">
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="193" t="s">
+      <c r="O2" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="196" t="s">
+      <c r="P2" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="193" t="s">
+      <c r="Q2" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="190" t="s">
+      <c r="R2" s="196" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="192"/>
+      <c r="S2" s="198"/>
     </row>
     <row r="3" spans="1:19" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A3" s="195"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="151" t="s">
+      <c r="A3" s="218"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="151" t="s">
+      <c r="G3" s="174"/>
+      <c r="H3" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="151" t="s">
+      <c r="I3" s="174"/>
+      <c r="J3" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="152"/>
-      <c r="L3" s="153"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="174"/>
       <c r="M3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="194"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="199"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="200"/>
+      <c r="P3" s="220"/>
+      <c r="Q3" s="200"/>
+      <c r="R3" s="201"/>
+      <c r="S3" s="202"/>
     </row>
     <row r="4" spans="1:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="195"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="159"/>
+      <c r="A4" s="218"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="180"/>
       <c r="M4" s="35"/>
       <c r="N4" s="36"/>
       <c r="O4" s="32"/>
       <c r="P4" s="32"/>
       <c r="Q4" s="32"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="159"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="180"/>
     </row>
     <row r="5" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="195"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
+      <c r="A5" s="218"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="177"/>
       <c r="M5" s="34"/>
       <c r="N5" s="37"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="156"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="177"/>
     </row>
     <row r="6" spans="1:19" s="15" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="195"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
+      <c r="A6" s="218"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="177"/>
       <c r="M6" s="34"/>
       <c r="N6" s="37"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="156"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="177"/>
     </row>
     <row r="7" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="195"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
+      <c r="A7" s="218"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="34"/>
       <c r="N7" s="37"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="156"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="177"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="195"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
+      <c r="A8" s="218"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="177"/>
       <c r="M8" s="34"/>
       <c r="N8" s="37"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="156"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="177"/>
     </row>
     <row r="9" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="195"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="156"/>
+      <c r="A9" s="218"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="177"/>
       <c r="M9" s="34"/>
       <c r="N9" s="37"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="156"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="177"/>
     </row>
     <row r="10" spans="1:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="195"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="156"/>
+      <c r="A10" s="218"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="177"/>
       <c r="M10" s="34"/>
       <c r="N10" s="37"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="30"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="156"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="177"/>
     </row>
     <row r="11" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A11" s="195"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="156"/>
+      <c r="A11" s="218"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="177"/>
       <c r="M11" s="34"/>
       <c r="N11" s="37"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="156"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="177"/>
     </row>
     <row r="12" spans="1:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="195"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156"/>
+      <c r="A12" s="218"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="177"/>
       <c r="M12" s="34"/>
       <c r="N12" s="37"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="156"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="177"/>
     </row>
     <row r="13" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A13" s="195"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="156"/>
+      <c r="A13" s="218"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="177"/>
       <c r="M13" s="34"/>
       <c r="N13" s="37"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="156"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="177"/>
     </row>
     <row r="14" spans="1:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="D14" s="177"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="156"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="177"/>
       <c r="M14" s="34"/>
       <c r="N14" s="37"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="156"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="177"/>
     </row>
     <row r="15" spans="1:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="156"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="177"/>
       <c r="M15" s="34"/>
       <c r="N15" s="37"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="156"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="177"/>
     </row>
     <row r="16" spans="1:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="156"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="177"/>
       <c r="M16" s="34"/>
       <c r="N16" s="37"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="156"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="177"/>
     </row>
     <row r="17" spans="2:19" s="14" customFormat="1" ht="22.5" customHeight="1">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="156"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="177"/>
       <c r="M17" s="34"/>
       <c r="N17" s="37"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="156"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="177"/>
     </row>
     <row r="18" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="156"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="177"/>
       <c r="M18" s="34"/>
       <c r="N18" s="37"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="156"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="177"/>
     </row>
     <row r="19" spans="2:19" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="177"/>
       <c r="M19" s="34"/>
       <c r="N19" s="37"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="156"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="177"/>
     </row>
     <row r="20" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="188"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="177"/>
       <c r="M20" s="34"/>
       <c r="N20" s="37"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="156"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="177"/>
     </row>
     <row r="21" spans="2:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B21" s="114"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="177"/>
       <c r="M21" s="34"/>
       <c r="N21" s="37"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="156"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="177"/>
     </row>
     <row r="22" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B22" s="114"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="156"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="177"/>
       <c r="M22" s="34"/>
       <c r="N22" s="37"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="156"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="177"/>
     </row>
     <row r="23" spans="2:19" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B23" s="115"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="156"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
       <c r="M23" s="34"/>
       <c r="N23" s="37"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="30"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="156"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="177"/>
     </row>
     <row r="24" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="156"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="177"/>
       <c r="M24" s="34"/>
       <c r="N24" s="37"/>
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="156"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="177"/>
     </row>
     <row r="25" spans="2:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B25" s="114"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="156"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="177"/>
       <c r="M25" s="34"/>
       <c r="N25" s="37"/>
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="156"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="177"/>
     </row>
     <row r="26" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B26" s="115"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="156"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="177"/>
       <c r="M26" s="34"/>
       <c r="N26" s="37"/>
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="156"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="177"/>
     </row>
     <row r="27" spans="2:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="188"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="177"/>
       <c r="M27" s="34"/>
       <c r="N27" s="37"/>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="156"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="177"/>
     </row>
     <row r="28" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B28" s="114"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="177"/>
       <c r="M28" s="34"/>
       <c r="N28" s="37"/>
       <c r="O28" s="30"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="156"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="177"/>
     </row>
     <row r="29" spans="2:19" s="9" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B29" s="115"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="156"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="195"/>
+      <c r="E29" s="195"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
       <c r="M29" s="34"/>
       <c r="N29" s="37"/>
       <c r="O29" s="30"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="156"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="177"/>
     </row>
     <row r="30" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B30" s="113" t="s">
+      <c r="B30" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="185"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="156"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="177"/>
       <c r="M30" s="34"/>
       <c r="N30" s="37"/>
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="156"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="177"/>
     </row>
     <row r="31" spans="2:19" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B31" s="114"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="156"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="177"/>
       <c r="M31" s="34"/>
       <c r="N31" s="37"/>
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="156"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="177"/>
     </row>
     <row r="32" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B32" s="114"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="156"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="177"/>
       <c r="M32" s="34"/>
       <c r="N32" s="37"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="156"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="177"/>
     </row>
     <row r="33" spans="2:19" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B33" s="115"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="179"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="156"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="177"/>
       <c r="M33" s="34"/>
       <c r="N33" s="37"/>
       <c r="O33" s="30"/>
       <c r="P33" s="30"/>
       <c r="Q33" s="30"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="156"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="177"/>
     </row>
     <row r="34" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="170"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="212"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="207"/>
+      <c r="L34" s="190"/>
       <c r="M34" s="33"/>
       <c r="N34" s="38"/>
       <c r="O34" s="31"/>
       <c r="P34" s="31"/>
       <c r="Q34" s="31"/>
-      <c r="R34" s="168"/>
-      <c r="S34" s="170"/>
+      <c r="R34" s="189"/>
+      <c r="S34" s="190"/>
     </row>
     <row r="35" spans="2:19" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B35" s="114"/>
-      <c r="C35" s="183"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="210"/>
       <c r="D35" s="28"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="165"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
       <c r="K35" s="39"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="79" t="s">
+      <c r="L35" s="137"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="97" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:19" s="9" customFormat="1" ht="7.5" customHeight="1" thickBot="1">
-      <c r="B36" s="114"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="79"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="181"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="208"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="97"/>
     </row>
     <row r="37" spans="2:19" s="9" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
-      <c r="B37" s="114"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="162"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="79"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="212"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="184"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="106"/>
+      <c r="S37" s="97"/>
     </row>
     <row r="38" spans="2:19" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B38" s="115"/>
-      <c r="C38" s="184"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="211"/>
       <c r="D38" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="189" t="s">
+      <c r="E38" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="189"/>
-      <c r="G38" s="180" t="s">
+      <c r="F38" s="217"/>
+      <c r="G38" s="203" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="181"/>
-      <c r="I38" s="166" t="s">
+      <c r="H38" s="204"/>
+      <c r="I38" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="167"/>
+      <c r="J38" s="206"/>
       <c r="K38" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="94"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="79"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="97"/>
     </row>
     <row r="39" spans="2:19" s="9" customFormat="1" ht="13.9" customHeight="1">
-      <c r="M39" s="117" t="s">
+      <c r="M39" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="N39" s="117"/>
-      <c r="Q39" s="117" t="s">
+      <c r="N39" s="129"/>
+      <c r="Q39" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="117"/>
-      <c r="S39" s="117"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="129"/>
     </row>
     <row r="40" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1"/>
     <row r="41" spans="2:19" s="9" customFormat="1" ht="23.25" customHeight="1"/>
@@ -5036,6 +5036,21 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="E36:F37"/>
@@ -5053,25 +5068,21 @@
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
@@ -5084,21 +5095,6 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
@@ -5115,6 +5111,30 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L35:R38"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="D1:S1"/>
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="F6:G6"/>
@@ -5132,35 +5152,6 @@
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L35:R38"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="G36:H37"/>
@@ -5176,6 +5167,15 @@
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J37"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H28:I28"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J28:L28"/>
